--- a/output/inference_results/test_sheets/batch_003/test_sheet (34).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (34).xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>乙型肝炎病毒表面抗原</t>
+          <t>乙型肝炎表面抗原定量</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0--0.5</t>
+          <t>0-0.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>乙型肝炎病毒表面抗体</t>
+          <t>乙型肝炎表面抗体定量</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0--10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MIU/ml</t>
+          <t>IU/mL</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>乙型肝炎病毒e抗原</t>
+          <t>乙肝病毒e抗原</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0--0.5</t>
+          <t>0-0.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乙型肝炎病毒e抗体</t>
+          <t>乙肝病毒e抗原</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-—1</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>乙型肝炎病毒核心抗体</t>
+          <t>乙型肝炎核心抗体定量</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0--5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>乙肝表面抗原前S2抗原</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
